--- a/activité 1/Users.xlsx
+++ b/activité 1/Users.xlsx
@@ -555,7 +555,7 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H16" sqref="H16"/>
+      <selection activeCell="F18" sqref="F18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>

--- a/activité 1/Users.xlsx
+++ b/activité 1/Users.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="17">
   <si>
     <t>Utilisateur</t>
   </si>
@@ -41,12 +41,6 @@
     <t>mélanie.alonso</t>
   </si>
   <si>
-    <t>ok</t>
-  </si>
-  <si>
-    <t>ko</t>
-  </si>
-  <si>
     <t>Accès dossier services</t>
   </si>
   <si>
@@ -59,9 +53,6 @@
     <t>tim.brown</t>
   </si>
   <si>
-    <t>ok: it</t>
-  </si>
-  <si>
     <t>jean-michel.blaser</t>
   </si>
   <si>
@@ -69,6 +60,21 @@
   </si>
   <si>
     <t>juerg.haefeli</t>
+  </si>
+  <si>
+    <t>fonctionne</t>
+  </si>
+  <si>
+    <t>erreur</t>
+  </si>
+  <si>
+    <t>pas d'accès</t>
+  </si>
+  <si>
+    <t>accès: IT</t>
+  </si>
+  <si>
+    <t>accès</t>
   </si>
 </sst>
 </file>
@@ -555,14 +561,14 @@
   <dimension ref="B1:F18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F18" sqref="F18"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.42578125" style="1"/>
     <col min="2" max="2" width="11.7109375" style="1" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="5.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="6.85546875" style="1" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="18.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="17.140625" style="1" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="21.28515625" style="1" bestFit="1" customWidth="1"/>
@@ -584,7 +590,7 @@
         <v>3</v>
       </c>
       <c r="F2" s="7" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
     </row>
     <row r="3" spans="2:6" x14ac:dyDescent="0.3">
@@ -592,118 +598,118 @@
         <v>4</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D3" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F3" s="9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" s="8" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D4" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E4" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F4" s="9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D5" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F5" s="9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="8" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="D6" s="4" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F6" s="9" t="s">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" s="4" t="s">
         <v>12</v>
       </c>
-      <c r="C7" s="4" t="s">
-        <v>5</v>
-      </c>
       <c r="D7" s="4" t="s">
-        <v>6</v>
+        <v>13</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F7" s="9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="8" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B8" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="D8" s="4" t="s">
         <v>13</v>
       </c>
-      <c r="C8" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="D8" s="4" t="s">
-        <v>6</v>
-      </c>
       <c r="E8" s="4" t="s">
-        <v>5</v>
+        <v>16</v>
       </c>
       <c r="F8" s="9" t="s">
-        <v>6</v>
+        <v>14</v>
       </c>
     </row>
     <row r="9" spans="2:6" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B9" s="10" t="s">
+        <v>11</v>
+      </c>
+      <c r="C9" s="11" t="s">
+        <v>12</v>
+      </c>
+      <c r="D9" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="E9" s="11" t="s">
+        <v>16</v>
+      </c>
+      <c r="F9" s="12" t="s">
         <v>14</v>
-      </c>
-      <c r="C9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="D9" s="11" t="s">
-        <v>6</v>
-      </c>
-      <c r="E9" s="11" t="s">
-        <v>5</v>
-      </c>
-      <c r="F9" s="12" t="s">
-        <v>6</v>
       </c>
     </row>
     <row r="10" spans="2:6" x14ac:dyDescent="0.3">
